--- a/z.ERP/trunk/z.ERP.Web/File/Template/合同信息表.xlsx
+++ b/z.ERP/trunk/z.ERP.Web/File/Template/合同信息表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF36B82-4BD7-4DF9-9A6B-1D1FA2AF0D22}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95732CE-2040-4CD6-B52D-444DADAF21D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>合同信息表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>楼层</t>
@@ -33,148 +33,97 @@
   </si>
   <si>
     <t>合同号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>品牌名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>客户编码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>客户名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>经营面积</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>合同有效期起</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>合同有效期止</t>
   </si>
   <si>
     <t>租金收取方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>固定租金标准</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>固定租金收费规则</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>物业费收费规则</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">物业管理费（元/平米/月）
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>履约保证金</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>装修保证金</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>POS押金</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=ContractInfo.CONTRACTID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=ContractInfo.FLOORCODE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=ContractInfo.SHOPCODE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=ContractInfo.BRANDNAME</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=ContractInfo.MERCHANTID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=ContractInfo.MERCHANTNAME</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=ContractInfo.AREAR</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=ContractInfo.CONT_START</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=ContractInfo.CONT_END</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=ContractInfo.RENTWAY</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=ContractInfo.RENTPRICE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=ContractInfo.RENTRULE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=ContractInfo.WYFRULE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=ContractInfo.WYFPRICE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=ContractInfo.LYBZJ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=ContractInfo.ZXBZJ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=ContractInfo.POSYJ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,21 +211,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -285,13 +228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -300,10 +237,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -581,50 +523,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.9140625" style="4" customWidth="1"/>
-    <col min="2" max="5" width="8.25" style="4"/>
-    <col min="6" max="6" width="17.33203125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="8.25" style="4"/>
-    <col min="8" max="8" width="12.08203125" style="4" customWidth="1"/>
-    <col min="9" max="10" width="10.75" style="4" customWidth="1"/>
-    <col min="11" max="11" width="21.9140625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="15.4140625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="16.58203125" style="5" customWidth="1"/>
-    <col min="14" max="14" width="10.08203125" style="4" customWidth="1"/>
-    <col min="15" max="17" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.25" style="4"/>
+    <col min="1" max="1" width="12.88671875" style="3" customWidth="1"/>
+    <col min="2" max="3" width="8.21875" style="3"/>
+    <col min="4" max="4" width="11.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="21.88671875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="18.88671875" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="8.21875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-    </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.3">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -655,266 +592,191 @@
       <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="G3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="H3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="I3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="J3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="K3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="L3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-    </row>
-    <row r="5" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-    </row>
-    <row r="6" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-    </row>
-    <row r="7" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-    </row>
-    <row r="8" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-    </row>
-    <row r="9" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-    </row>
-    <row r="10" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-    </row>
-    <row r="11" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-    </row>
-    <row r="12" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-    </row>
-    <row r="13" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-    </row>
-    <row r="14" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-    </row>
-    <row r="15" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-    </row>
-    <row r="16" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-    </row>
-    <row r="17" spans="12:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-    </row>
-    <row r="18" spans="12:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-    </row>
-    <row r="19" spans="12:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-    </row>
-    <row r="20" spans="12:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-    </row>
-    <row r="21" spans="12:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-    </row>
-    <row r="22" spans="12:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-    </row>
-    <row r="23" spans="12:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-    </row>
-    <row r="24" spans="12:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-    </row>
-    <row r="25" spans="12:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-    </row>
-    <row r="26" spans="12:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-    </row>
-    <row r="27" spans="12:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-    </row>
-    <row r="28" spans="12:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-    </row>
-    <row r="29" spans="12:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-    </row>
-    <row r="30" spans="12:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-    </row>
-    <row r="31" spans="12:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-    </row>
-    <row r="32" spans="12:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-    </row>
-    <row r="33" spans="12:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-    </row>
-    <row r="34" spans="12:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-    </row>
-    <row r="35" spans="12:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-    </row>
-    <row r="36" spans="12:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-    </row>
-    <row r="37" spans="12:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-    </row>
-    <row r="38" spans="12:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-    </row>
-    <row r="39" spans="12:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-    </row>
-    <row r="40" spans="12:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-    </row>
-    <row r="41" spans="12:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-    </row>
-    <row r="42" spans="12:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-    </row>
-    <row r="43" spans="12:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-    </row>
-    <row r="44" spans="12:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-    </row>
-    <row r="45" spans="12:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-    </row>
-    <row r="46" spans="12:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-    </row>
-    <row r="47" spans="12:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-    </row>
-    <row r="48" spans="12:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
+    </row>
+    <row r="4" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="12:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="12:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="12:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="12:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="12:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L21" s="7"/>
+    </row>
+    <row r="22" spans="12:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L22" s="7"/>
+    </row>
+    <row r="23" spans="12:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L23" s="7"/>
+    </row>
+    <row r="24" spans="12:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L24" s="7"/>
+    </row>
+    <row r="25" spans="12:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L25" s="7"/>
+    </row>
+    <row r="26" spans="12:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L26" s="7"/>
+    </row>
+    <row r="27" spans="12:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L27" s="7"/>
+    </row>
+    <row r="28" spans="12:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L28" s="7"/>
+    </row>
+    <row r="29" spans="12:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L29" s="7"/>
+    </row>
+    <row r="30" spans="12:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L30" s="7"/>
+    </row>
+    <row r="31" spans="12:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L31" s="7"/>
+    </row>
+    <row r="32" spans="12:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L32" s="7"/>
+    </row>
+    <row r="33" spans="12:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L33" s="7"/>
+    </row>
+    <row r="34" spans="12:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L34" s="7"/>
+    </row>
+    <row r="35" spans="12:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L35" s="7"/>
+    </row>
+    <row r="36" spans="12:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L36" s="7"/>
+    </row>
+    <row r="37" spans="12:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L37" s="7"/>
+    </row>
+    <row r="38" spans="12:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L38" s="7"/>
+    </row>
+    <row r="39" spans="12:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L39" s="7"/>
+    </row>
+    <row r="40" spans="12:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L40" s="7"/>
+    </row>
+    <row r="41" spans="12:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L41" s="7"/>
+    </row>
+    <row r="42" spans="12:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L42" s="7"/>
+    </row>
+    <row r="43" spans="12:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L43" s="7"/>
+    </row>
+    <row r="44" spans="12:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L44" s="7"/>
+    </row>
+    <row r="45" spans="12:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L45" s="7"/>
+    </row>
+    <row r="46" spans="12:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L46" s="7"/>
+    </row>
+    <row r="47" spans="12:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L47" s="7"/>
+    </row>
+    <row r="48" spans="12:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L48" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
